--- a/xlsx/法新社_intext.xlsx
+++ b/xlsx/法新社_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>法新社</t>
   </si>
@@ -29,7 +29,7 @@
     <t>通讯社</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_法新社</t>
+    <t>政策_政策_维基百科_法新社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>德國軍隊</t>
+    <t>德国军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9F%E5%86%9B</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8F%AF%E7%A4%BE</t>
   </si>
   <si>
-    <t>新華社</t>
+    <t>新华社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
@@ -251,19 +251,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E7%B6%B2</t>
   </si>
   <si>
-    <t>東方網</t>
+    <t>东方网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%81%AF%E7%A4%BE</t>
   </si>
   <si>
-    <t>美聯社</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%96%B0%E8%81%9E%E5%9C%96%E7%89%87%E7%A4%BE</t>
   </si>
   <si>
-    <t>歐洲新聞圖片社</t>
+    <t>欧洲新闻图片社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E5%8D%97%E5%9B%BE%E7%89%87%E7%A4%BE</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
   </si>
   <si>
-    <t>中央通訊社</t>
+    <t>中央通讯社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>Google新聞</t>
+    <t>Google新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MSN</t>
@@ -305,31 +302,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8F%AF%E6%97%A9%E5%A0%B1</t>
   </si>
   <si>
-    <t>南華早報</t>
+    <t>南华早报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%99%BD%E5%AE%AE%E7%B0%A1%E5%A0%B1%E5%AE%A4%E5%BA%A7%E6%AC%A1%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-白宮簡報室座次表</t>
+    <t>Template talk-白宫简报室座次表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -473,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -509,19 +506,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -623,25 +620,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2191,7 +2188,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2217,10 +2214,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2246,10 +2243,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2275,10 +2272,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2304,10 +2301,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2333,10 +2330,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2362,10 +2359,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2391,10 +2388,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2420,10 +2417,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2449,10 +2446,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2478,10 +2475,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2507,10 +2504,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2536,10 +2533,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2565,10 +2562,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2594,10 +2591,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2623,10 +2620,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2652,10 +2649,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2681,10 +2678,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2710,10 +2707,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2739,10 +2736,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2768,10 +2765,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2826,10 +2823,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2855,10 +2852,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2884,10 +2881,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2913,10 +2910,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2942,10 +2939,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2971,10 +2968,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3000,10 +2997,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3029,10 +3026,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3058,10 +3055,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3087,10 +3084,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3116,10 +3113,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3145,10 +3142,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3174,10 +3171,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3203,10 +3200,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3232,10 +3229,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3261,10 +3258,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3290,10 +3287,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3319,10 +3316,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3348,10 +3345,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3377,10 +3374,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3406,10 +3403,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3435,10 +3432,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3464,10 +3461,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3493,10 +3490,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3522,10 +3519,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3551,10 +3548,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3580,10 +3577,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3609,10 +3606,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3638,10 +3635,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3667,10 +3664,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3696,10 +3693,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3725,10 +3722,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3754,10 +3751,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3783,10 +3780,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3812,10 +3809,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3841,10 +3838,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3870,10 +3867,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3899,10 +3896,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3928,10 +3925,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3957,10 +3954,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3986,10 +3983,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4015,10 +4012,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4044,10 +4041,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4073,10 +4070,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4102,10 +4099,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4131,10 +4128,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4160,10 +4157,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4189,10 +4186,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4218,10 +4215,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4247,10 +4244,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4276,10 +4273,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4305,10 +4302,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
